--- a/BalanceSheet/BKR_bal.xlsx
+++ b/BalanceSheet/BKR_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>88000000.0</v>
+        <v>4181000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>103000000.0</v>
+        <v>4421000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>92000000.0</v>
+        <v>4469000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-135000000.0</v>
+        <v>4616000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-140000000.0</v>
+        <v>4534000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>4608000000.0</v>
@@ -1902,19 +1902,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-11000000.0</v>
+        <v>3468000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-41000000.0</v>
+        <v>3532000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-180000000.0</v>
+        <v>3482000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-308000000.0</v>
+        <v>3628000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-182000000.0</v>
+        <v>3991000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>4268000000.0</v>
@@ -3031,10 +3031,10 @@
         <v>-777000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>425000000.0</v>
+        <v>-767000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-265000000.0</v>
+        <v>-1133000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>-997000000.0</v>
